--- a/aichan/506345729033030101_2021-03-26_20-00-02.xlsx
+++ b/aichan/506345729033030101_2021-03-26_20-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:50:03</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95142361111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -605,10 +619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:47:48</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44327.82486111111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:27:46</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44325.3942824074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-04 00:02:41</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44320.00186342592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:37:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44315.69280092593</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -911,10 +917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:36:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44310.48368055555</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -974,10 +978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-22 18:26:04</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44308.76810185185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1054,10 +1056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:54:42</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44308.45465277778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1130,10 +1130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:08:59</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44307.46457175926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:04:55</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44306.50341435185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1277,10 +1273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-19 09:11:05</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44305.38269675926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1350,10 +1344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:26:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44305.01857638889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1434,10 +1426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:43:11</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44304.94665509259</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1506,10 +1496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:25:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44302.30918981481</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1585,10 +1573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:15:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44302.09394675926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1660,10 +1646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-13 20:20:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44299.8472337963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1742,10 +1726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-10 00:21:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44296.0150462963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1807,10 +1789,8 @@
           <t>4386572423</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-09 11:38:23</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44295.48498842592</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1880,10 +1860,8 @@
           <t>4386580015</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-09 11:38:10</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44295.48483796296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1962,10 +1940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:46:16</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44295.36546296296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-09 01:44:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44295.07253472223</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2096,10 +2070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-08 11:10:02</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44294.46530092593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2170,10 +2142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:40:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44294.31950231481</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2237,10 +2207,8 @@
           <t>4378528010</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:07:45</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44293.71371527778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2319,10 +2287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:29:26</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44293.02043981481</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2386,10 +2352,8 @@
           <t>4371767027</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-06 00:32:49</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44292.02278935185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2462,10 +2426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-05 17:50:09</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44291.74315972222</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2530,10 +2492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:03:24</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44290.83569444445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2597,10 +2557,8 @@
           <t>4356605021</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-03 09:56:48</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44289.41444444445</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2664,10 +2622,8 @@
           <t>4318060053</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-03 01:48:44</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44289.07550925926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2735,10 +2691,8 @@
           <t>4318060053</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-02 23:29:01</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44288.97848379629</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2806,10 +2760,8 @@
           <t>4355177457</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-02 23:28:29</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44288.97811342592</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2877,10 +2829,8 @@
           <t>4355148657</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-02 23:23:39</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44288.97475694444</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2949,10 +2899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:20:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44288.93063657408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3013,10 +2961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:15:41</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44288.55255787037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3091,10 +3037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-02 00:28:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44288.01953703703</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3177,10 +3121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:25:55</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44287.76799768519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3248,10 +3190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-01 15:19:40</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44287.63865740741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3332,10 +3272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:06:57</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44286.87982638889</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3407,10 +3345,8 @@
           <t>4322429333</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-30 21:52:23</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44285.91137731481</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3478,10 +3414,8 @@
           <t>4322429333</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-30 19:35:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44285.81627314815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3557,10 +3491,8 @@
           <t>4335523837</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-29 23:19:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44284.97152777778</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3641,10 +3573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:41:19</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44284.77869212963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3708,10 +3638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:20:25</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44284.51417824074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3787,10 +3715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-28 10:16:31</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44283.42813657408</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3855,10 +3781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-27 18:29:22</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44282.77039351852</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3926,10 +3850,8 @@
           <t>4324134393</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-27 17:38:06</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44282.73479166667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4001,10 +3923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-27 15:34:21</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44282.64885416667</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4072,10 +3992,8 @@
           <t>4323213158</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:10:56</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44282.59092592593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4139,10 +4057,8 @@
           <t>4323272955</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:03:52</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44282.58601851852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4214,10 +4130,8 @@
           <t>4323269587</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:03:15</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44282.58559027778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4289,10 +4203,8 @@
           <t>4323213158</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-27 13:49:13</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44282.57584490741</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4364,10 +4276,8 @@
           <t>4322604163</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:42:44</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44282.48800925926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4435,10 +4345,8 @@
           <t>4322429333</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:05:32</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44282.46217592592</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4498,10 +4406,8 @@
           <t>4322429333</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-27 11:01:18</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44282.45923611111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4569,10 +4475,8 @@
           <t>4318005927</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-27 10:59:06</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44282.45770833334</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4640,10 +4544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-27 10:30:20</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44282.43773148148</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4715,10 +4617,8 @@
           <t>4322264781</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-27 10:18:23</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44282.42943287037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4790,10 +4690,8 @@
           <t>4321929913</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-27 08:35:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44282.35818287037</v>
       </c>
       <c r="I60" t="n">
         <v>10</v>
@@ -4865,10 +4763,8 @@
           <t>4318326748</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-27 08:30:12</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44282.35430555556</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4944,10 +4840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-27 07:01:36</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44282.29277777778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5019,10 +4913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-27 06:29:03</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44282.27017361111</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5098,10 +4990,8 @@
           <t>4321518439</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-27 02:17:18</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44282.09534722222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5170,10 +5060,8 @@
           <t>4321448461</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-27 01:41:35</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44282.07054398148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5249,10 +5137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-27 01:41:20</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44282.07037037037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5328,10 +5214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-27 01:40:19</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44282.06966435185</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5407,10 +5291,8 @@
           <t>4321272237</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:40:06</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44282.02784722222</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5474,10 +5356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:20:20</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44282.01412037037</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5549,10 +5429,8 @@
           <t>4321176730</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-27 00:16:45</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44282.01163194444</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5628,10 +5506,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:24:16</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44281.97518518518</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5695,10 +5571,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:15:26</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44281.96905092592</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5770,10 +5644,8 @@
           <t>4320859701</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:14:50</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44281.96863425926</v>
       </c>
       <c r="I73" t="n">
         <v>14</v>
@@ -5845,10 +5717,8 @@
           <t>4320681801</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:41:56</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44281.94578703704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5916,10 +5786,8 @@
           <t>4320545849</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:17:34</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44281.92886574074</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5995,10 +5863,8 @@
           <t>4320457564</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:01:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44281.91769675926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6058,10 +5924,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-26 21:55:43</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44281.91369212963</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6125,10 +5989,8 @@
           <t>4318016959</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-26 21:53:23</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44281.91207175926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6192,10 +6054,8 @@
           <t>4318005927</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-26 21:12:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44281.88361111111</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6263,10 +6123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:37:07</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44281.8591087963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6330,10 +6188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-26 20:13:07</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44281.84244212963</v>
       </c>
       <c r="I81" t="n">
         <v>164</v>
@@ -6401,10 +6257,8 @@
           <t>4318016959</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:47:37</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44281.8247337963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6468,10 +6322,8 @@
           <t>4319700754</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:41:14</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44281.82030092592</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6547,10 +6399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:38:30</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44281.81840277778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6627,10 +6477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:37:38</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44281.81780092593</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6707,10 +6555,8 @@
           <t>4319715221</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:35:35</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44281.81637731481</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6787,10 +6633,8 @@
           <t>4319700754</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:32:58</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44281.81456018519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6867,10 +6711,8 @@
           <t>4319682829</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:30:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44281.81287037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6947,10 +6789,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:02:26</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44281.79335648148</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7021,10 +6861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:45:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44281.78167824074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7100,10 +6938,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:40:20</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44281.77800925926</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7177,10 +7013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:39:06</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44281.77715277778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7256,10 +7090,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:25:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44281.76754629629</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7338,10 +7170,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:11:21</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44281.75788194445</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7409,10 +7239,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:11:09</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44281.75774305555</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7480,10 +7308,8 @@
           <t>4319245307</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:08:11</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44281.75568287037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7559,10 +7385,8 @@
           <t>4318448768</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:06:34</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44281.75456018518</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7634,10 +7458,8 @@
           <t>4318448768</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:06:03</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44281.75420138889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7709,10 +7531,8 @@
           <t>4318736935</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:43:15</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44281.73836805556</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7791,10 +7611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:34:47</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44281.73248842593</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7862,10 +7680,8 @@
           <t>4318099054</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:25:45</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44281.72621527778</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7941,10 +7757,8 @@
           <t>4319024213</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:22:51</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44281.72420138889</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8012,10 +7826,8 @@
           <t>4318942462</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:19:16</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44281.72171296296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8087,10 +7899,8 @@
           <t>4318991009</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:13:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44281.71776620371</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8150,10 +7960,8 @@
           <t>4318979709</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:12:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44281.71712962963</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8221,10 +8029,8 @@
           <t>4318949214</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:05:16</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44281.71199074074</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8296,10 +8102,8 @@
           <t>4318942462</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:02:19</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44281.70994212963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8371,10 +8175,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-26 17:00:41</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44281.70880787037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8442,10 +8244,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:58:31</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44281.70730324074</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8513,10 +8313,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:58:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44281.70703703703</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8585,10 +8383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:55:20</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44281.70509259259</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8664,10 +8460,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:45:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44281.69819444444</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8735,10 +8529,8 @@
           <t>4318326748</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:43:16</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44281.69671296296</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8802,10 +8594,8 @@
           <t>4318862748</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:43:07</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44281.69660879629</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8881,10 +8671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:43:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44281.6965625</v>
       </c>
       <c r="I115" t="n">
         <v>5</v>
@@ -8952,10 +8740,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:42:31</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44281.69619212963</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9023,10 +8809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:42:27</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44281.69614583333</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9102,10 +8886,8 @@
           <t>4317855581</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:28:22</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44281.68636574074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9169,10 +8951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:27:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44281.68609953704</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9240,10 +9020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:27:34</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44281.68581018518</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9307,10 +9085,8 @@
           <t>4318791072</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:21:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44281.6815162037</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9386,10 +9162,8 @@
           <t>4318448768</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:11:44</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44281.67481481482</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9465,10 +9239,8 @@
           <t>4318736935</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:06:35</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44281.67123842592</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9528,10 +9300,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:57:24</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44281.66486111111</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9599,10 +9369,8 @@
           <t>4318448768</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:54:03</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44281.66253472222</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9670,10 +9438,8 @@
           <t>4318621031</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:31:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44281.64702546296</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9741,10 +9507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:28:57</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44281.64510416667</v>
       </c>
       <c r="I127" t="n">
         <v>6</v>
@@ -9816,10 +9580,8 @@
           <t>4318583561</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:20:09</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44281.63899305555</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9883,10 +9645,8 @@
           <t>4318016959</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:15:38</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44281.63585648148</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9950,10 +9710,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:15:25</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44281.63570601852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10017,10 +9775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:53:49</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44281.62070601852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10096,10 +9852,8 @@
           <t>4318099054</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:47:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44281.61651620371</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -10171,10 +9925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:46:17</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44281.61547453704</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10242,10 +9994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:42:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44281.61261574074</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10317,10 +10067,8 @@
           <t>4318448768</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:37:35</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44281.60943287037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10396,10 +10144,8 @@
           <t>4318440236</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:33:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44281.60678240741</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10471,10 +10217,8 @@
           <t>4318434045</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:33:10</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44281.60636574074</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10542,10 +10286,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:31:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44281.60543981481</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10617,10 +10359,8 @@
           <t>4318390718</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:17:15</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44281.5953125</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10684,10 +10424,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:15:16</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44281.59393518518</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10761,10 +10499,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:11:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44281.59144675926</v>
       </c>
       <c r="I141" t="n">
         <v>4</v>
@@ -10836,10 +10572,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:11:16</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44281.59115740741</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10908,10 +10642,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:01:34</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44281.5844212963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10979,10 +10711,8 @@
           <t>4318326748</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:57:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44281.58174768519</v>
       </c>
       <c r="I144" t="n">
         <v>9</v>
@@ -11054,10 +10784,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:51:12</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44281.57722222222</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11121,10 +10849,8 @@
           <t>4318294597</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:20</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44281.57662037037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11192,10 +10918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:50:01</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44281.57640046296</v>
       </c>
       <c r="I147" t="n">
         <v>26</v>
@@ -11263,10 +10987,8 @@
           <t>4318279942</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:48:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44281.57553240741</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11339,10 +11061,8 @@
           <t>4318300341</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:48:35</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44281.57540509259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11418,10 +11138,8 @@
           <t>4318295708</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:47:36</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44281.57472222222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11497,10 +11215,8 @@
           <t>4318279942</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:46:09</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44281.57371527778</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11576,10 +11292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:45:22</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44281.5731712963</v>
       </c>
       <c r="I152" t="n">
         <v>6</v>
@@ -11647,10 +11361,8 @@
           <t>4318278506</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:50</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44281.57280092593</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11718,10 +11430,8 @@
           <t>4318286151</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:44:44</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44281.57273148148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11789,10 +11499,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:43:42</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44281.57201388889</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11860,10 +11568,8 @@
           <t>4318276231</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:42:46</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44281.57136574074</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11939,10 +11645,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:41:18</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44281.57034722222</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12018,10 +11722,8 @@
           <t>4317958808</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:39:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44281.56916666667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12097,10 +11799,8 @@
           <t>4318036519</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:38:03</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44281.56809027777</v>
       </c>
       <c r="I159" t="n">
         <v>8</v>
@@ -12176,10 +11876,8 @@
           <t>4318256952</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:36:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44281.56702546297</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -12252,10 +11950,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:36:16</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44281.56685185185</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12331,10 +12027,8 @@
           <t>4318099054</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:35:09</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44281.56607638889</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12410,10 +12104,8 @@
           <t>4318239136</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:32:59</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44281.56457175926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12489,10 +12181,8 @@
           <t>4318228192</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:37</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44281.56292824074</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12564,10 +12254,8 @@
           <t>4318235618</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44281.56258101852</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12639,10 +12327,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:30:05</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44281.56255787037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12718,10 +12404,8 @@
           <t>4318228192</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:29:07</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44281.56188657408</v>
       </c>
       <c r="I167" t="n">
         <v>4</v>
@@ -12797,10 +12481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:28:11</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44281.56123842593</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12868,10 +12550,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:27:03</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44281.56045138889</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12943,10 +12623,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:26:02</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44281.55974537037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13022,10 +12700,8 @@
           <t>4318214233</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:25:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44281.55962962963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13101,10 +12777,8 @@
           <t>4318055924</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:23:54</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44281.55826388889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13176,10 +12850,8 @@
           <t>4318016959</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:22:23</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44281.55721064815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13243,10 +12915,8 @@
           <t>4318205537</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:22:03</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44281.55697916666</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13322,10 +12992,8 @@
           <t>4318055700</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:21:37</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44281.55667824074</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13397,10 +13065,8 @@
           <t>4318189522</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:20:38</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44281.55599537037</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13472,10 +13138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:19:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44281.55548611111</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -13547,10 +13211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:19:45</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44281.55538194445</v>
       </c>
       <c r="I178" t="n">
         <v>4</v>
@@ -13622,10 +13284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:17</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44281.55436342592</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13693,10 +13353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:18:11</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44281.55429398148</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13768,10 +13426,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:17:18</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44281.55368055555</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13839,10 +13495,8 @@
           <t>4318109588</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44281.55303240741</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13910,10 +13564,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:16:14</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44281.55293981481</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13977,10 +13629,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:15:41</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44281.55255787037</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14059,10 +13709,8 @@
           <t>4318109588</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:14:26</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44281.55168981481</v>
       </c>
       <c r="I185" t="n">
         <v>5</v>
@@ -14130,10 +13778,8 @@
           <t>4318149211</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:10:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44281.54863425926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14197,10 +13843,8 @@
           <t>4318148972</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:09:53</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44281.54853009259</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14264,10 +13908,8 @@
           <t>4318146172</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:07:50</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44281.54710648148</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14339,10 +13981,8 @@
           <t>4318099054</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:06:36</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44281.54625</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14410,10 +14050,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:31</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44281.54480324074</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14485,10 +14123,8 @@
           <t>4318126948</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:27</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44281.54475694444</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14564,10 +14200,8 @@
           <t>4317899183</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:03:58</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44281.5444212963</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14632,10 +14266,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:03:40</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44281.54421296297</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14703,10 +14335,8 @@
           <t>4318123733</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:03:16</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44281.54393518518</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14782,10 +14412,8 @@
           <t>4318123110</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:02:49</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44281.54362268518</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14849,10 +14477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:01:19</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44281.54258101852</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14916,10 +14542,8 @@
           <t>4318109588</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:00:28</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44281.54199074074</v>
       </c>
       <c r="I197" t="n">
         <v>13</v>
@@ -14991,10 +14615,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:14</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44281.54113425926</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -15070,10 +14692,8 @@
           <t>4318099054</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44281.54108796296</v>
       </c>
       <c r="I199" t="n">
         <v>12</v>
@@ -15133,10 +14753,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:46</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44281.54081018519</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15208,10 +14826,8 @@
           <t>4318097564</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:11</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44281.54040509259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15279,10 +14895,8 @@
           <t>4318094539</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:57:06</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44281.53965277778</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15358,10 +14972,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:56:32</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44281.53925925926</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15430,10 +15042,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:56:16</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44281.53907407408</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15497,10 +15107,8 @@
           <t>4318084302</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:56:02</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44281.53891203704</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15572,10 +15180,8 @@
           <t>4318092857</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:55:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44281.53885416667</v>
       </c>
       <c r="I206" t="n">
         <v>5</v>
@@ -15651,10 +15257,8 @@
           <t>4318087934</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:55:40</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44281.53865740741</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15718,10 +15322,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:55:29</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44281.53853009259</v>
       </c>
       <c r="I208" t="n">
         <v>11</v>
@@ -15797,10 +15399,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:55:24</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44281.53847222222</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15868,10 +15468,8 @@
           <t>4318082418</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:54:49</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44281.53806712963</v>
       </c>
       <c r="I210" t="n">
         <v>23</v>
@@ -15948,10 +15546,8 @@
           <t>4318005927</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:54:01</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44281.53751157408</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16027,10 +15623,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:53:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44281.53721064814</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -16106,10 +15700,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:53:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44281.53717592593</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16169,10 +15761,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:52:43</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44281.5366087963</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16248,10 +15838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:52:34</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44281.53650462963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16325,10 +15913,8 @@
           <t>4318072118</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44281.53608796297</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16396,10 +15982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:53</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44281.53603009259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16475,10 +16059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:52</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44281.53601851852</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16554,10 +16136,8 @@
           <t>4318055700</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:28</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44281.53574074074</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16634,10 +16214,8 @@
           <t>4318023065</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44281.53574074074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16701,10 +16279,8 @@
           <t>4318055924</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:51:07</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44281.53549768519</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16768,10 +16344,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:50:29</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44281.53505787037</v>
       </c>
       <c r="I222" t="n">
         <v>8</v>
@@ -16839,10 +16413,8 @@
           <t>4318023065</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:50:27</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44281.53503472222</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16906,10 +16478,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:50:16</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44281.5349074074</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16981,10 +16551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:50:01</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44281.5347337963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17052,10 +16620,8 @@
           <t>4318005927</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:49:45</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44281.53454861111</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -17127,10 +16693,8 @@
           <t>4318063476</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:49:43</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44281.53452546296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17194,10 +16758,8 @@
           <t>4318054271</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:49:42</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44281.53451388889</v>
       </c>
       <c r="I228" t="n">
         <v>8</v>
@@ -17273,10 +16835,8 @@
           <t>4318055700</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:49:11</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44281.5341550926</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17352,10 +16912,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:49:05</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44281.53408564815</v>
       </c>
       <c r="I230" t="n">
         <v>7</v>
@@ -17431,10 +16989,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:48:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44281.53393518519</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17506,10 +17062,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:48:51</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44281.53392361111</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -17581,10 +17135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:48:50</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44281.53391203703</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17656,10 +17208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:48:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44281.53348379629</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17732,10 +17282,8 @@
           <t>4318055924</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:48:07</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44281.53341435185</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17807,10 +17355,8 @@
           <t>4318055700</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:47:59</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44281.53332175926</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17887,10 +17433,8 @@
           <t>4318060053</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:47:33</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44281.53302083333</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17958,10 +17502,8 @@
           <t>4318039913</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:57</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44281.53260416666</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18033,10 +17575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:45</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44281.53246527778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18104,10 +17644,8 @@
           <t>4318048655</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44281.53241898148</v>
       </c>
       <c r="I240" t="n">
         <v>16</v>
@@ -18183,10 +17721,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:39</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44281.53239583333</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18258,10 +17794,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44281.53232638889</v>
       </c>
       <c r="I242" t="n">
         <v>5</v>
@@ -18329,10 +17863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:46:21</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44281.5321875</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18392,10 +17924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:59</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44281.53193287037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18471,10 +18001,8 @@
           <t>4318047306</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:50</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44281.5318287037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18546,10 +18074,8 @@
           <t>4318023065</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:34</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44281.53164351852</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -18625,10 +18151,8 @@
           <t>4318037684</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:32</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44281.53162037037</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18696,10 +18220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:30</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44281.53159722222</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18771,10 +18293,8 @@
           <t>4318046110</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:45:06</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44281.53131944445</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18842,10 +18362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:44:52</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44281.53115740741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18921,10 +18439,8 @@
           <t>4318036519</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:44:48</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44281.53111111111</v>
       </c>
       <c r="I251" t="n">
         <v>8</v>
@@ -18992,10 +18508,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:44:43</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44281.53105324074</v>
       </c>
       <c r="I252" t="n">
         <v>9</v>
@@ -19067,10 +18581,8 @@
           <t>4318040173</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:44:30</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44281.53090277778</v>
       </c>
       <c r="I253" t="n">
         <v>17</v>
@@ -19142,10 +18654,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:44:02</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44281.53057870371</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -19209,10 +18719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:43:40</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44281.53032407408</v>
       </c>
       <c r="I255" t="n">
         <v>4</v>
@@ -19276,10 +18784,8 @@
           <t>4318024682</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:43:39</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44281.5303125</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19343,10 +18849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:43:30</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44281.53020833333</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19422,10 +18926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:56</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44281.52981481481</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19493,10 +18995,8 @@
           <t>4318027465</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:51</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44281.52975694444</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19560,10 +19060,8 @@
           <t>4318027337</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:46</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44281.52969907408</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19635,10 +19133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:40</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44281.52962962963</v>
       </c>
       <c r="I261" t="n">
         <v>12</v>
@@ -19710,10 +19206,8 @@
           <t>4318022462</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44281.52934027778</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19789,10 +19283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:09</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44281.52927083334</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19864,10 +19356,8 @@
           <t>4318031296</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:42:09</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44281.52927083334</v>
       </c>
       <c r="I264" t="n">
         <v>5</v>
@@ -19935,10 +19425,8 @@
           <t>4318021994</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:41:57</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44281.52913194444</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -20006,10 +19494,8 @@
           <t>4318020991</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:41:20</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44281.52870370371</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20081,10 +19567,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:41:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44281.52857638889</v>
       </c>
       <c r="I267" t="n">
         <v>6</v>
@@ -20152,10 +19636,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:40:59</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44281.52846064815</v>
       </c>
       <c r="I268" t="n">
         <v>6</v>
@@ -20227,10 +19709,8 @@
           <t>4318018796</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:40:38</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44281.52821759259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20290,10 +19770,8 @@
           <t>4318009426</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:40:23</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44281.52804398148</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20365,10 +19843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:40:20</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44281.52800925926</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20440,10 +19916,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:40:13</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44281.52792824074</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20515,10 +19989,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:39:56</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44281.52773148148</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20582,10 +20054,8 @@
           <t>4318016959</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:39:30</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44281.52743055556</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20649,10 +20119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:38:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44281.52659722222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20720,10 +20188,8 @@
           <t>4318005927</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:38:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44281.52655092593</v>
       </c>
       <c r="I276" t="n">
         <v>59</v>
@@ -20799,10 +20265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:51</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44281.52628472223</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20870,10 +20334,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44281.52611111111</v>
       </c>
       <c r="I278" t="n">
         <v>5</v>
@@ -20933,10 +20395,8 @@
           <t>4317999048</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:31</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44281.52605324074</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -21000,10 +20460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:26</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44281.52599537037</v>
       </c>
       <c r="I280" t="n">
         <v>53</v>
@@ -21075,10 +20533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44281.52596064815</v>
       </c>
       <c r="I281" t="n">
         <v>139</v>
@@ -21142,10 +20598,8 @@
           <t>4317994490</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:22</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44281.52594907407</v>
       </c>
       <c r="I282" t="n">
         <v>5</v>
@@ -21213,10 +20667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:37:00</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44281.52569444444</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21288,10 +20740,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:36:39</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44281.52545138889</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21355,10 +20805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:36:22</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44281.52525462963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21422,10 +20870,8 @@
           <t>4317992415</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:36:03</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44281.52503472222</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21501,10 +20947,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:55</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44281.52494212963</v>
       </c>
       <c r="I287" t="n">
         <v>5</v>
@@ -21576,10 +21020,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:52</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44281.52490740741</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -21647,10 +21089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:40</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44281.52476851852</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21726,10 +21166,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44281.52469907407</v>
       </c>
       <c r="I290" t="n">
         <v>5</v>
@@ -21793,10 +21231,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:34</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44281.52469907407</v>
       </c>
       <c r="I291" t="n">
         <v>4</v>
@@ -21860,10 +21296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:30</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44281.52465277778</v>
       </c>
       <c r="I292" t="n">
         <v>17</v>
@@ -21931,10 +21365,8 @@
           <t>4317958808</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:35:21</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44281.52454861111</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21998,10 +21430,8 @@
           <t>4317995072</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:58</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44281.52428240741</v>
       </c>
       <c r="I294" t="n">
         <v>42</v>
@@ -22077,10 +21507,8 @@
           <t>4317989421</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:56</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44281.52425925926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22148,10 +21576,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:55</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44281.52424768519</v>
       </c>
       <c r="I296" t="n">
         <v>16</v>
@@ -22227,10 +21653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:51</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44281.52420138889</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22298,10 +21722,8 @@
           <t>4317989261</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:50</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44281.52418981482</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22373,10 +21795,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:44</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44281.52412037037</v>
       </c>
       <c r="I299" t="n">
         <v>6</v>
@@ -22440,10 +21860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44281.52405092592</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22519,10 +21937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:33</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44281.52399305555</v>
       </c>
       <c r="I301" t="n">
         <v>4</v>
@@ -22590,10 +22006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:34:24</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44281.52388888889</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22657,10 +22071,8 @@
           <t>4317987397</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:33:40</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44281.52337962963</v>
       </c>
       <c r="I303" t="n">
         <v>34</v>
@@ -22724,10 +22136,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:33:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44281.52335648148</v>
       </c>
       <c r="I304" t="n">
         <v>6</v>
@@ -22803,10 +22213,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:33:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44281.52310185185</v>
       </c>
       <c r="I305" t="n">
         <v>8</v>
@@ -22870,10 +22278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:32:59</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44281.52290509259</v>
       </c>
       <c r="I306" t="n">
         <v>74</v>
@@ -22945,10 +22351,8 @@
           <t>4317958808</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:32:58</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44281.52289351852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23021,10 +22425,8 @@
           <t>4317980921</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:32:22</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44281.52247685185</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -23092,10 +22494,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:32:10</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44281.52233796296</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23169,10 +22569,8 @@
           <t>4317980171</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:31:53</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44281.52214120371</v>
       </c>
       <c r="I310" t="n">
         <v>8</v>
@@ -23248,10 +22646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:31:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44281.52165509259</v>
       </c>
       <c r="I311" t="n">
         <v>5</v>
@@ -23315,10 +22711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:30:56</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44281.52148148148</v>
       </c>
       <c r="I312" t="n">
         <v>281</v>
@@ -23386,10 +22780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:30:45</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44281.52135416667</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23449,10 +22841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:30:40</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44281.5212962963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23524,10 +22914,8 @@
           <t>4317972464</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:30:39</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44281.52128472222</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23595,10 +22983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:29:48</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44281.52069444444</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23674,10 +23060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:29:43</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44281.52063657407</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23741,10 +23125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:29:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44281.52046296297</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23816,10 +23198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:29:15</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44281.5203125</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23887,10 +23267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:29:08</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44281.52023148148</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23966,10 +23344,8 @@
           <t>4317917628</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:48</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44281.52</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -24033,10 +23409,8 @@
           <t>4317930945</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:34</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44281.51983796297</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24104,10 +23478,8 @@
           <t>4317958808</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:25</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44281.5197337963</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -24183,10 +23555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:23</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44281.51971064815</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24258,10 +23628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:09</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44281.51954861111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24337,10 +23705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:28:04</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44281.51949074074</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24417,10 +23783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:27:43</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44281.51924768519</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24484,10 +23848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:27:03</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44281.51878472222</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24555,10 +23917,8 @@
           <t>4317930945</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:27:01</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44281.51876157407</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24622,10 +23982,8 @@
           <t>4317956259</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:51</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44281.51864583333</v>
       </c>
       <c r="I330" t="n">
         <v>7</v>
@@ -24701,10 +24059,8 @@
           <t>4317956158</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:48</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44281.51861111111</v>
       </c>
       <c r="I331" t="n">
         <v>7</v>
@@ -24780,10 +24136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:42</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44281.51854166666</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24847,10 +24201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:24</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44281.51833333333</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24910,10 +24262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:15</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44281.51822916666</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24981,10 +24331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:26:01</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44281.51806712963</v>
       </c>
       <c r="I335" t="n">
         <v>13</v>
@@ -25053,10 +24401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:25:43</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44281.51785879629</v>
       </c>
       <c r="I336" t="n">
         <v>147</v>
@@ -25132,10 +24478,8 @@
           <t>4317843351</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:25:34</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44281.51775462963</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25207,10 +24551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:24:41</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44281.5171412037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25278,10 +24620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:24:37</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44281.51709490741</v>
       </c>
       <c r="I339" t="n">
         <v>518</v>
@@ -25345,10 +24685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:24:05</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44281.51672453704</v>
       </c>
       <c r="I340" t="n">
         <v>206</v>
@@ -25420,10 +24758,8 @@
           <t>4317917628</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:23:56</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44281.51662037037</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25487,10 +24823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:23:15</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44281.51614583333</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25558,10 +24892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:23:00</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44281.51597222222</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25637,10 +24969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:22:51</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44281.51586805555</v>
       </c>
       <c r="I344" t="n">
         <v>17</v>
@@ -25704,10 +25034,8 @@
           <t>4317930945</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:22:28</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44281.51560185185</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25775,10 +25103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:20:56</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44281.51453703704</v>
       </c>
       <c r="I346" t="n">
         <v>54</v>
@@ -25846,10 +25172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:20:43</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44281.51438657408</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25926,10 +25250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:20:30</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44281.51423611111</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26005,10 +25327,8 @@
           <t>4317855581</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:20:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44281.51402777778</v>
       </c>
       <c r="I349" t="n">
         <v>10</v>
@@ -26084,10 +25404,8 @@
           <t>4317901540</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:20:03</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44281.51392361111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26166,10 +25484,8 @@
           <t>4317899183</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:19:35</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44281.51359953704</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26242,10 +25558,8 @@
           <t>4317915911</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:19:17</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44281.51339120371</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26313,10 +25627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:18:41</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44281.51297453704</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26384,10 +25696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:17:52</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44281.5124074074</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26455,10 +25765,8 @@
           <t>4317843351</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:17:30</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44281.51215277778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26522,10 +25830,8 @@
           <t>4317901540</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:16:27</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44281.51142361111</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26593,10 +25899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:16:01</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44281.51112268519</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26668,10 +25972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:15:55</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44281.51105324074</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26747,10 +26049,8 @@
           <t>4317899183</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:15:44</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44281.51092592593</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26814,10 +26114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:15:16</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44281.51060185185</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26889,10 +26187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:14:55</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44281.51035879629</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26964,10 +26260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:14:52</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44281.51032407407</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27032,10 +26326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:14:13</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44281.50987268519</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -27099,10 +26391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:13:54</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44281.50965277778</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27170,10 +26460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:12:05</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44281.5083912037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27237,10 +26525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:12:03</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44281.50836805555</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27312,10 +26598,8 @@
           <t>4317877331</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:10:25</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44281.5072337963</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27375,10 +26659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:09:57</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44281.50690972222</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27442,10 +26724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:09:15</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44281.50642361111</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27521,10 +26801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:09:07</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44281.50633101852</v>
       </c>
       <c r="I370" t="n">
         <v>6</v>
@@ -27600,10 +26878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:08:53</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44281.50616898148</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27679,10 +26955,8 @@
           <t>4317855581</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:08:21</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44281.50579861111</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27758,10 +27032,8 @@
           <t>4317855581</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:08:15</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44281.50572916667</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27834,10 +27106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:08:04</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44281.50560185185</v>
       </c>
       <c r="I374" t="n">
         <v>37</v>
@@ -27909,10 +27179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:07:42</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44281.50534722222</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27984,10 +27252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:06:52</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44281.50476851852</v>
       </c>
       <c r="I376" t="n">
         <v>130</v>
@@ -28051,10 +27317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:06:52</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44281.50476851852</v>
       </c>
       <c r="I377" t="n">
         <v>190</v>
@@ -28118,10 +27382,8 @@
           <t>4317854577</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:05:54</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44281.50409722222</v>
       </c>
       <c r="I378" t="n">
         <v>19</v>
@@ -28185,10 +27447,8 @@
           <t>4317855056</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:05:26</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44281.50377314815</v>
       </c>
       <c r="I379" t="n">
         <v>11</v>
@@ -28260,10 +27520,8 @@
           <t>4317853251</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:58</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44281.50344907407</v>
       </c>
       <c r="I380" t="n">
         <v>5</v>
@@ -28340,10 +27598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:57</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44281.5034375</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28407,10 +27663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:52</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44281.50337962963</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28482,10 +27736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:50</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44281.50335648148</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28561,10 +27813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:38</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44281.5032175926</v>
       </c>
       <c r="I384" t="n">
         <v>7</v>
@@ -28632,10 +27882,8 @@
           <t>4317843351</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:14</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44281.50293981482</v>
       </c>
       <c r="I385" t="n">
         <v>83</v>
@@ -28703,10 +27951,8 @@
           <t>4317847663</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:04:00</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44281.50277777778</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28783,10 +28029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:59</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44281.5027662037</v>
       </c>
       <c r="I387" t="n">
         <v>40</v>
@@ -28852,10 +28096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:40</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44281.50254629629</v>
       </c>
       <c r="I388" t="n">
         <v>6</v>
@@ -28931,10 +28173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44281.50253472223</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28998,10 +28238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:33</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44281.50246527778</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29069,10 +28307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:24</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44281.50236111111</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29144,10 +28380,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:17</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44281.50228009259</v>
       </c>
       <c r="I392" t="n">
         <v>29</v>
@@ -29226,10 +28460,8 @@
           <t>4317850933</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:17</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44281.50228009259</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29303,10 +28535,8 @@
           <t>4317846616</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:16</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44281.50226851852</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29382,10 +28612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:14</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44281.50224537037</v>
       </c>
       <c r="I395" t="n">
         <v>5</v>
@@ -29457,10 +28685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:13</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44281.50223379629</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29524,10 +28750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:03:09</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44281.5021875</v>
       </c>
       <c r="I397" t="n">
         <v>188</v>
@@ -29587,10 +28811,8 @@
           <t>4317828982</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:02:17</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44281.50158564815</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29658,10 +28880,8 @@
           <t>4317838798</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:49</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44281.50126157407</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29740,10 +28960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:24</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44281.50097222222</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29819,10 +29037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:21</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44281.5009375</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29882,10 +29098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44281.50081018519</v>
       </c>
       <c r="I402" t="n">
         <v>4</v>
@@ -29945,10 +29159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:05</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44281.50075231482</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30024,10 +29236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:01:03</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44281.50072916667</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30095,10 +29305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:00:59</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44281.50068287037</v>
       </c>
       <c r="I405" t="n">
         <v>1197</v>
@@ -30177,10 +29385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:00:56</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44281.50064814815</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30252,10 +29458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:00:49</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44281.50056712963</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30331,10 +29535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:00:48</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44281.50055555555</v>
       </c>
       <c r="I408" t="n">
         <v>51</v>
@@ -30402,10 +29604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:00:38</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44281.50043981482</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
